--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-106_システム機能俯瞰図(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-106_システム機能俯瞰図(サンプル＆ガイド).xlsx
@@ -957,16 +957,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -976,6 +966,13 @@
   </si>
   <si>
     <t>の下に提供されています。</t>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -9075,9 +9072,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="9"/>
       <c r="J31" s="14"/>
-      <c r="R31" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="R31" s="15"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="9"/>
@@ -9117,20 +9112,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9605,7 +9604,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-106_システム機能俯瞰図(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-106_システム機能俯瞰図(サンプル＆ガイド).xlsx
@@ -957,6 +957,16 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -966,13 +976,6 @@
   </si>
   <si>
     <t>の下に提供されています。</t>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -9072,7 +9075,9 @@
       <c r="G31" s="13"/>
       <c r="H31" s="9"/>
       <c r="J31" s="14"/>
-      <c r="R31" s="15"/>
+      <c r="R31" s="15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="9"/>
@@ -9112,24 +9117,20 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9604,7 +9605,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-106_システム機能俯瞰図(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-106_システム機能俯瞰図(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12370993-E922-400C-8715-0DCC768A009B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="10575" windowHeight="5700"/>
+    <workbookView xWindow="9660" yWindow="6030" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -17,12 +18,22 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -956,29 +967,11 @@
     <t>2018年08月29日</t>
     <phoneticPr fontId="12"/>
   </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1397,8 +1390,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1406,17 +1399,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1497,6 +1490,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1518,7 +1514,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1616,52 +1618,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1682,7 +1638,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1755,7 +1717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1847,7 +1815,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1911,7 +1885,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="25" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -1966,7 +1946,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="グループ化 10"/>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1979,7 +1965,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="119" name="Rectangle 1040"/>
+          <xdr:cNvPr id="119" name="Rectangle 1040">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2021,7 +2013,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="Rectangle 1234"/>
+          <xdr:cNvPr id="120" name="Rectangle 1234">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2035,7 +2033,6 @@
             <a:avLst/>
           </a:prstGeom>
           <a:ln/>
-          <a:extLst/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="0">
@@ -2078,7 +2075,13 @@
     <xdr:ext cx="685316" cy="151836"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Text Box 1226"/>
+        <xdr:cNvPr id="50" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2148,7 +2151,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="グループ化 11"/>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2161,7 +2170,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="Rectangle 1040"/>
+          <xdr:cNvPr id="2" name="Rectangle 1040">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2203,7 +2218,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="Rectangle 1234"/>
+          <xdr:cNvPr id="62" name="Rectangle 1234">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2217,7 +2238,6 @@
             <a:avLst/>
           </a:prstGeom>
           <a:ln/>
-          <a:extLst/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="0">
@@ -2249,7 +2269,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+          <xdr:cNvPr id="63" name="正方形/長方形 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2293,7 +2319,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+          <xdr:cNvPr id="64" name="正方形/長方形 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2348,7 +2380,13 @@
     <xdr:ext cx="428835" cy="160533"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Text Box 1226"/>
+        <xdr:cNvPr id="65" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2418,7 +2456,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Text Box 1226"/>
+        <xdr:cNvPr id="21" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2488,7 +2532,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Text Box 1226"/>
+        <xdr:cNvPr id="24" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2558,7 +2608,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Text Box 1226"/>
+        <xdr:cNvPr id="25" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2628,7 +2684,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Text Box 1226"/>
+        <xdr:cNvPr id="27" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2698,7 +2760,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Text Box 1226"/>
+        <xdr:cNvPr id="28" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2768,7 +2836,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Text Box 1226"/>
+        <xdr:cNvPr id="29" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2838,7 +2912,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Text Box 1226"/>
+        <xdr:cNvPr id="30" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2908,7 +2988,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Text Box 1226"/>
+        <xdr:cNvPr id="68" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2978,7 +3064,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="右矢印 138"/>
+        <xdr:cNvPr id="139" name="右矢印 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3030,7 +3122,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="右矢印 139"/>
+        <xdr:cNvPr id="140" name="右矢印 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3082,7 +3180,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="右矢印 140"/>
+        <xdr:cNvPr id="141" name="右矢印 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3134,7 +3238,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="上矢印 165"/>
+        <xdr:cNvPr id="166" name="上矢印 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3186,7 +3296,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="上矢印 166"/>
+        <xdr:cNvPr id="167" name="上矢印 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3238,7 +3354,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="上矢印 167"/>
+        <xdr:cNvPr id="168" name="上矢印 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3290,7 +3412,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="下矢印 168"/>
+        <xdr:cNvPr id="169" name="下矢印 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3342,7 +3470,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="170" name="下矢印 169"/>
+        <xdr:cNvPr id="170" name="下矢印 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3394,7 +3528,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="右矢印 171"/>
+        <xdr:cNvPr id="172" name="右矢印 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3446,7 +3586,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="右矢印 172"/>
+        <xdr:cNvPr id="173" name="右矢印 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3498,7 +3644,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvPr id="7" name="グループ化 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3511,7 +3663,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="正方形/長方形 70"/>
+          <xdr:cNvPr id="71" name="正方形/長方形 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3548,7 +3706,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+          <xdr:cNvPr id="72" name="正方形/長方形 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3591,7 +3755,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="フローチャート: 処理 72"/>
+          <xdr:cNvPr id="73" name="フローチャート: 処理 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3635,7 +3805,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="フローチャート: 処理 73"/>
+          <xdr:cNvPr id="74" name="フローチャート: 処理 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3679,7 +3855,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="フローチャート: 処理 74"/>
+          <xdr:cNvPr id="75" name="フローチャート: 処理 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3723,7 +3905,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="フローチャート: 処理 75"/>
+          <xdr:cNvPr id="76" name="フローチャート: 処理 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3767,7 +3955,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="フローチャート: 処理 81"/>
+          <xdr:cNvPr id="82" name="フローチャート: 処理 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3811,7 +4005,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="フローチャート: 処理 82"/>
+          <xdr:cNvPr id="83" name="フローチャート: 処理 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3855,7 +4055,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="フローチャート: 処理 83"/>
+          <xdr:cNvPr id="84" name="フローチャート: 処理 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3899,7 +4105,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="フローチャート: 処理 84"/>
+          <xdr:cNvPr id="85" name="フローチャート: 処理 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3943,7 +4155,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="フローチャート: 処理 122"/>
+          <xdr:cNvPr id="123" name="フローチャート: 処理 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3987,7 +4205,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="フローチャート: 処理 123"/>
+          <xdr:cNvPr id="124" name="フローチャート: 処理 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4031,7 +4255,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="126" name="フローチャート: 処理 125"/>
+          <xdr:cNvPr id="126" name="フローチャート: 処理 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4075,7 +4305,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="フローチャート: 処理 126"/>
+          <xdr:cNvPr id="127" name="フローチャート: 処理 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4119,7 +4355,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="143" name="フローチャート: 処理 142"/>
+          <xdr:cNvPr id="143" name="フローチャート: 処理 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4163,7 +4405,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="144" name="フローチャート: 処理 143"/>
+          <xdr:cNvPr id="144" name="フローチャート: 処理 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4207,7 +4455,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="145" name="フローチャート: 処理 144"/>
+          <xdr:cNvPr id="145" name="フローチャート: 処理 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4251,7 +4505,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="146" name="フローチャート: 処理 145"/>
+          <xdr:cNvPr id="146" name="フローチャート: 処理 145">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000092000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4295,7 +4555,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="円柱 3"/>
+          <xdr:cNvPr id="4" name="円柱 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4352,7 +4618,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="円柱 92"/>
+          <xdr:cNvPr id="93" name="円柱 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4409,7 +4681,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="円柱 94"/>
+          <xdr:cNvPr id="95" name="円柱 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4468,7 +4746,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4481,7 +4765,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+          <xdr:cNvPr id="105" name="正方形/長方形 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4518,7 +4808,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+          <xdr:cNvPr id="106" name="正方形/長方形 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4561,7 +4857,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="フローチャート: 処理 106"/>
+          <xdr:cNvPr id="107" name="フローチャート: 処理 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4605,7 +4907,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="フローチャート: 処理 107"/>
+          <xdr:cNvPr id="108" name="フローチャート: 処理 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4649,7 +4957,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="フローチャート: 処理 108"/>
+          <xdr:cNvPr id="109" name="フローチャート: 処理 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4693,7 +5007,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="110" name="フローチャート: 処理 109"/>
+          <xdr:cNvPr id="110" name="フローチャート: 処理 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4737,7 +5057,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="111" name="フローチャート: 処理 110"/>
+          <xdr:cNvPr id="111" name="フローチャート: 処理 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4781,7 +5107,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="円柱 96"/>
+          <xdr:cNvPr id="97" name="円柱 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4824,7 +5156,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="円柱 102"/>
+          <xdr:cNvPr id="103" name="円柱 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4883,7 +5221,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8"/>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4896,7 +5240,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+          <xdr:cNvPr id="98" name="正方形/長方形 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4933,7 +5283,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+          <xdr:cNvPr id="99" name="正方形/長方形 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4976,7 +5332,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="100" name="フローチャート: 処理 99"/>
+          <xdr:cNvPr id="100" name="フローチャート: 処理 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5020,7 +5382,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="フローチャート: 処理 100"/>
+          <xdr:cNvPr id="101" name="フローチャート: 処理 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5064,7 +5432,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="フローチャート: 処理 101"/>
+          <xdr:cNvPr id="102" name="フローチャート: 処理 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5108,7 +5482,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="円柱 103"/>
+          <xdr:cNvPr id="104" name="円柱 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5167,7 +5547,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5180,7 +5566,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+          <xdr:cNvPr id="86" name="正方形/長方形 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5217,7 +5609,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+          <xdr:cNvPr id="87" name="正方形/長方形 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5260,7 +5658,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="フローチャート: 処理 87"/>
+          <xdr:cNvPr id="88" name="フローチャート: 処理 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5304,7 +5708,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="フローチャート: 処理 89"/>
+          <xdr:cNvPr id="90" name="フローチャート: 処理 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5348,7 +5758,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="フローチャート: 処理 91"/>
+          <xdr:cNvPr id="92" name="フローチャート: 処理 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5392,7 +5808,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="フローチャート: 処理 93"/>
+          <xdr:cNvPr id="94" name="フローチャート: 処理 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5436,7 +5858,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="フローチャート: 処理 95"/>
+          <xdr:cNvPr id="96" name="フローチャート: 処理 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5480,7 +5908,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="円柱 111"/>
+          <xdr:cNvPr id="112" name="円柱 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5539,7 +5973,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9"/>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5552,7 +5992,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="147" name="正方形/長方形 146"/>
+          <xdr:cNvPr id="147" name="正方形/長方形 146">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000093000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5589,7 +6035,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="148" name="正方形/長方形 147"/>
+          <xdr:cNvPr id="148" name="正方形/長方形 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000094000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5632,7 +6084,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="149" name="フローチャート: 処理 148"/>
+          <xdr:cNvPr id="149" name="フローチャート: 処理 148">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5676,7 +6134,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="150" name="フローチャート: 処理 149"/>
+          <xdr:cNvPr id="150" name="フローチャート: 処理 149">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000096000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5720,7 +6184,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="151" name="フローチャート: 処理 150"/>
+          <xdr:cNvPr id="151" name="フローチャート: 処理 150">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000097000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5764,7 +6234,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="152" name="フローチャート: 処理 151"/>
+          <xdr:cNvPr id="152" name="フローチャート: 処理 151">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5808,7 +6284,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="153" name="フローチャート: 処理 152"/>
+          <xdr:cNvPr id="153" name="フローチャート: 処理 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5852,7 +6334,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="154" name="フローチャート: 処理 153"/>
+          <xdr:cNvPr id="154" name="フローチャート: 処理 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5896,7 +6384,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="157" name="フローチャート: 処理 156"/>
+          <xdr:cNvPr id="157" name="フローチャート: 処理 156">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5940,7 +6434,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="158" name="フローチャート: 処理 157"/>
+          <xdr:cNvPr id="158" name="フローチャート: 処理 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5984,7 +6484,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="159" name="フローチャート: 処理 158"/>
+          <xdr:cNvPr id="159" name="フローチャート: 処理 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6028,7 +6534,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="フローチャート: 処理 160"/>
+          <xdr:cNvPr id="161" name="フローチャート: 処理 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6072,7 +6584,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="162" name="フローチャート: 処理 161"/>
+          <xdr:cNvPr id="162" name="フローチャート: 処理 161">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6116,7 +6634,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="163" name="フローチャート: 処理 162"/>
+          <xdr:cNvPr id="163" name="フローチャート: 処理 162">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6160,7 +6684,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="円柱 112"/>
+          <xdr:cNvPr id="113" name="円柱 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6233,7 +6763,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6275,7 +6811,13 @@
     <xdr:ext cx="863313" cy="151836"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="Text Box 1226"/>
+        <xdr:cNvPr id="116" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6345,7 +6887,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6387,7 +6935,13 @@
     <xdr:ext cx="1385892" cy="285206"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="Text Box 1226"/>
+        <xdr:cNvPr id="122" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6463,7 +7017,13 @@
     <xdr:ext cx="1283300" cy="303408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="Text Box 1226"/>
+        <xdr:cNvPr id="128" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6544,7 +7104,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="直線矢印コネクタ 131"/>
+        <xdr:cNvPr id="132" name="直線矢印コネクタ 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6591,7 +7157,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
+        <xdr:cNvPr id="136" name="直線矢印コネクタ 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6633,7 +7205,13 @@
     <xdr:ext cx="1385892" cy="285206"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="Text Box 1226"/>
+        <xdr:cNvPr id="137" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6714,7 +7292,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="155" name="直線矢印コネクタ 154"/>
+        <xdr:cNvPr id="155" name="直線矢印コネクタ 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6756,7 +7340,13 @@
     <xdr:ext cx="804772" cy="151836"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="Text Box 1226"/>
+        <xdr:cNvPr id="156" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6821,7 +7411,13 @@
     <xdr:ext cx="1283300" cy="303408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="Text Box 1226"/>
+        <xdr:cNvPr id="164" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6902,7 +7498,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="174" name="直線矢印コネクタ 173"/>
+        <xdr:cNvPr id="174" name="直線矢印コネクタ 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6949,7 +7551,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
+        <xdr:cNvPr id="34" name="カギ線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6999,7 +7607,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="177" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -7044,7 +7658,13 @@
     <xdr:ext cx="1283300" cy="303408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="Text Box 1226"/>
+        <xdr:cNvPr id="179" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7120,7 +7740,13 @@
     <xdr:ext cx="1045931" cy="161925"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="Text Box 1226"/>
+        <xdr:cNvPr id="180" name="Text Box 1226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7191,7 +7817,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="グループ化 19"/>
+        <xdr:cNvPr id="20" name="グループ化 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7204,7 +7836,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="135" name="Text Box 11"/>
+          <xdr:cNvPr id="135" name="Text Box 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7383,7 +8021,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="図 2"/>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -7428,7 +8072,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7441,7 +8091,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="142" name="Text Box 38"/>
+          <xdr:cNvPr id="142" name="Text Box 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7638,7 +8294,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4"/>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -7683,7 +8345,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="グループ化 17"/>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7696,7 +8364,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="Text Box 38"/>
+          <xdr:cNvPr id="114" name="Text Box 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7893,7 +8567,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="図 13"/>
+          <xdr:cNvPr id="14" name="図 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -7938,7 +8618,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="グループ化 34"/>
+        <xdr:cNvPr id="35" name="グループ化 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7951,7 +8637,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="160" name="Text Box 38"/>
+          <xdr:cNvPr id="160" name="Text Box 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -8148,7 +8840,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="16" name="図 15"/>
+          <xdr:cNvPr id="16" name="図 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -8193,7 +8891,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="31" name="グループ化 30"/>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8206,7 +8910,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="Text Box 38"/>
+          <xdr:cNvPr id="118" name="Text Box 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -8403,7 +9113,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="165" name="図 164"/>
+          <xdr:cNvPr id="165" name="図 164">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -8448,7 +9164,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="グループ化 32"/>
+        <xdr:cNvPr id="33" name="グループ化 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8461,7 +9183,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="177" name="Text Box 38"/>
+          <xdr:cNvPr id="177" name="Text Box 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -8658,7 +9386,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="26" name="図 25"/>
+          <xdr:cNvPr id="26" name="図 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -8692,7 +9426,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8734,7 +9468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8767,9 +9501,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8802,6 +9553,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8977,7 +9745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9086,58 +9854,47 @@
       <c r="R32" s="18"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="20"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="19"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="20"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="20"/>
       <c r="R38" s="19"/>
       <c r="S38" s="20"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>60</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="22"/>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="20"/>
-      <c r="R39" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="R39" s="20"/>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9600,17 +10357,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10246,12 +11000,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:Y24"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:Y30"/>
+    <mergeCell ref="Z30:AH30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:Y31"/>
+    <mergeCell ref="Z31:AH31"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:Y28"/>
+    <mergeCell ref="Z28:AH28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:Y29"/>
+    <mergeCell ref="Z29:AH29"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:Y16"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:Y17"/>
+    <mergeCell ref="Z17:AH17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="I18:Y18"/>
     <mergeCell ref="Z18:AH18"/>
@@ -10267,24 +11033,12 @@
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="I21:Y21"/>
     <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:Y16"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:Y17"/>
-    <mergeCell ref="Z17:AH17"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:Y28"/>
-    <mergeCell ref="Z28:AH28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:Y29"/>
-    <mergeCell ref="Z29:AH29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:Y30"/>
-    <mergeCell ref="Z30:AH30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:Y31"/>
-    <mergeCell ref="Z31:AH31"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:Y24"/>
+    <mergeCell ref="Z24:AH24"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -10301,7 +11055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV76"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -10385,12 +11139,12 @@
       <c r="AV71" s="35"/>
     </row>
     <row r="72" spans="1:48" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
       <c r="F72" s="37" t="s">
         <v>10</v>
       </c>
@@ -10399,30 +11153,30 @@
       <c r="I72" s="37"/>
       <c r="J72" s="37"/>
       <c r="K72" s="37"/>
-      <c r="L72" s="38" t="s">
+      <c r="L72" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="38"/>
-      <c r="AA72" s="38"/>
-      <c r="AB72" s="38"/>
-      <c r="AC72" s="38"/>
-      <c r="AD72" s="38"/>
-      <c r="AE72" s="38"/>
-      <c r="AF72" s="38"/>
-      <c r="AG72" s="38"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
+      <c r="Z72" s="36"/>
+      <c r="AA72" s="36"/>
+      <c r="AB72" s="36"/>
+      <c r="AC72" s="36"/>
+      <c r="AD72" s="36"/>
+      <c r="AE72" s="36"/>
+      <c r="AF72" s="36"/>
+      <c r="AG72" s="36"/>
       <c r="AH72" s="37"/>
       <c r="AI72" s="37"/>
       <c r="AJ72" s="37"/>
@@ -10440,12 +11194,12 @@
       <c r="AV72" s="37"/>
     </row>
     <row r="73" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
       <c r="F73" s="34" t="s">
         <v>16</v>
       </c>
@@ -10454,30 +11208,30 @@
       <c r="I73" s="34"/>
       <c r="J73" s="34"/>
       <c r="K73" s="34"/>
-      <c r="L73" s="39" t="s">
+      <c r="L73" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
-      <c r="Z73" s="39"/>
-      <c r="AA73" s="39"/>
-      <c r="AB73" s="39"/>
-      <c r="AC73" s="39"/>
-      <c r="AD73" s="39"/>
-      <c r="AE73" s="39"/>
-      <c r="AF73" s="39"/>
-      <c r="AG73" s="39"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="33"/>
+      <c r="W73" s="33"/>
+      <c r="X73" s="33"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="33"/>
+      <c r="AA73" s="33"/>
+      <c r="AB73" s="33"/>
+      <c r="AC73" s="33"/>
+      <c r="AD73" s="33"/>
+      <c r="AE73" s="33"/>
+      <c r="AF73" s="33"/>
+      <c r="AG73" s="33"/>
       <c r="AH73" s="34"/>
       <c r="AI73" s="34"/>
       <c r="AJ73" s="34"/>
@@ -10495,12 +11249,12 @@
       <c r="AV73" s="34"/>
     </row>
     <row r="74" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="34" t="s">
         <v>12</v>
       </c>
@@ -10509,30 +11263,30 @@
       <c r="I74" s="34"/>
       <c r="J74" s="34"/>
       <c r="K74" s="34"/>
-      <c r="L74" s="39" t="s">
+      <c r="L74" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
-      <c r="Z74" s="39"/>
-      <c r="AA74" s="39"/>
-      <c r="AB74" s="39"/>
-      <c r="AC74" s="39"/>
-      <c r="AD74" s="39"/>
-      <c r="AE74" s="39"/>
-      <c r="AF74" s="39"/>
-      <c r="AG74" s="39"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="33"/>
+      <c r="V74" s="33"/>
+      <c r="W74" s="33"/>
+      <c r="X74" s="33"/>
+      <c r="Y74" s="33"/>
+      <c r="Z74" s="33"/>
+      <c r="AA74" s="33"/>
+      <c r="AB74" s="33"/>
+      <c r="AC74" s="33"/>
+      <c r="AD74" s="33"/>
+      <c r="AE74" s="33"/>
+      <c r="AF74" s="33"/>
+      <c r="AG74" s="33"/>
       <c r="AH74" s="34"/>
       <c r="AI74" s="34"/>
       <c r="AJ74" s="34"/>
@@ -10550,12 +11304,12 @@
       <c r="AV74" s="34"/>
     </row>
     <row r="75" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="34" t="s">
         <v>19</v>
       </c>
@@ -10564,30 +11318,30 @@
       <c r="I75" s="34"/>
       <c r="J75" s="34"/>
       <c r="K75" s="34"/>
-      <c r="L75" s="39" t="s">
+      <c r="L75" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="39"/>
-      <c r="Y75" s="39"/>
-      <c r="Z75" s="39"/>
-      <c r="AA75" s="39"/>
-      <c r="AB75" s="39"/>
-      <c r="AC75" s="39"/>
-      <c r="AD75" s="39"/>
-      <c r="AE75" s="39"/>
-      <c r="AF75" s="39"/>
-      <c r="AG75" s="39"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="33"/>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="33"/>
+      <c r="U75" s="33"/>
+      <c r="V75" s="33"/>
+      <c r="W75" s="33"/>
+      <c r="X75" s="33"/>
+      <c r="Y75" s="33"/>
+      <c r="Z75" s="33"/>
+      <c r="AA75" s="33"/>
+      <c r="AB75" s="33"/>
+      <c r="AC75" s="33"/>
+      <c r="AD75" s="33"/>
+      <c r="AE75" s="33"/>
+      <c r="AF75" s="33"/>
+      <c r="AG75" s="33"/>
       <c r="AH75" s="34"/>
       <c r="AI75" s="34"/>
       <c r="AJ75" s="34"/>
@@ -10605,12 +11359,12 @@
       <c r="AV75" s="34"/>
     </row>
     <row r="76" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
       <c r="F76" s="34" t="s">
         <v>18</v>
       </c>
@@ -10619,30 +11373,30 @@
       <c r="I76" s="34"/>
       <c r="J76" s="34"/>
       <c r="K76" s="34"/>
-      <c r="L76" s="39" t="s">
+      <c r="L76" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
-      <c r="Z76" s="39"/>
-      <c r="AA76" s="39"/>
-      <c r="AB76" s="39"/>
-      <c r="AC76" s="39"/>
-      <c r="AD76" s="39"/>
-      <c r="AE76" s="39"/>
-      <c r="AF76" s="39"/>
-      <c r="AG76" s="39"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="33"/>
+      <c r="T76" s="33"/>
+      <c r="U76" s="33"/>
+      <c r="V76" s="33"/>
+      <c r="W76" s="33"/>
+      <c r="X76" s="33"/>
+      <c r="Y76" s="33"/>
+      <c r="Z76" s="33"/>
+      <c r="AA76" s="33"/>
+      <c r="AB76" s="33"/>
+      <c r="AC76" s="33"/>
+      <c r="AD76" s="33"/>
+      <c r="AE76" s="33"/>
+      <c r="AF76" s="33"/>
+      <c r="AG76" s="33"/>
       <c r="AH76" s="34"/>
       <c r="AI76" s="34"/>
       <c r="AJ76" s="34"/>
@@ -10661,30 +11415,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:K76"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:K71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:K72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="AH71:AV71"/>
+    <mergeCell ref="L71:AG71"/>
+    <mergeCell ref="L72:AG72"/>
+    <mergeCell ref="AH72:AV72"/>
+    <mergeCell ref="L73:AG73"/>
+    <mergeCell ref="AH73:AV73"/>
     <mergeCell ref="L74:AG74"/>
     <mergeCell ref="AH74:AV74"/>
     <mergeCell ref="L75:AG75"/>
     <mergeCell ref="AH75:AV75"/>
     <mergeCell ref="L76:AG76"/>
     <mergeCell ref="AH76:AV76"/>
-    <mergeCell ref="AH71:AV71"/>
-    <mergeCell ref="L71:AG71"/>
-    <mergeCell ref="L72:AG72"/>
-    <mergeCell ref="AH72:AV72"/>
-    <mergeCell ref="L73:AG73"/>
-    <mergeCell ref="AH73:AV73"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:K71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:K72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F73:K73"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="F76:K76"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:K75"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
